--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H2">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I2">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J2">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>92.99918808161834</v>
+        <v>236.731037389788</v>
       </c>
       <c r="R2">
-        <v>92.99918808161834</v>
+        <v>2130.579336508092</v>
       </c>
       <c r="S2">
-        <v>0.1114997349672375</v>
+        <v>0.1770080627929401</v>
       </c>
       <c r="T2">
-        <v>0.1114997349672375</v>
+        <v>0.1866753362270842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H3">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I3">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J3">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>141.3282545752713</v>
+        <v>153.0611211317573</v>
       </c>
       <c r="R3">
-        <v>141.3282545752713</v>
+        <v>1377.550090185816</v>
       </c>
       <c r="S3">
-        <v>0.169443016155102</v>
+        <v>0.1144465585889273</v>
       </c>
       <c r="T3">
-        <v>0.169443016155102</v>
+        <v>0.1206970432166823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H4">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I4">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J4">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>8.060915266225683</v>
+        <v>9.003964322358888</v>
       </c>
       <c r="R4">
-        <v>8.060915266225683</v>
+        <v>81.03567890123</v>
       </c>
       <c r="S4">
-        <v>0.009664492070497679</v>
+        <v>0.006732426384518711</v>
       </c>
       <c r="T4">
-        <v>0.009664492070497679</v>
+        <v>0.00710011701797038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H5">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I5">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J5">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>14.76654310626898</v>
+        <v>17.69808456637422</v>
       </c>
       <c r="R5">
-        <v>14.76654310626898</v>
+        <v>159.282761097368</v>
       </c>
       <c r="S5">
-        <v>0.0177040862043473</v>
+        <v>0.01323317676795121</v>
       </c>
       <c r="T5">
-        <v>0.0177040862043473</v>
+        <v>0.01395590507873893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H6">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I6">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J6">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>35.48593392979648</v>
+        <v>37.57029084666333</v>
       </c>
       <c r="R6">
-        <v>35.48593392979648</v>
+        <v>225.42174507998</v>
       </c>
       <c r="S6">
-        <v>0.04254523410209494</v>
+        <v>0.02809198352130433</v>
       </c>
       <c r="T6">
-        <v>0.04254523410209494</v>
+        <v>0.0197508158155093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H7">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I7">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J7">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>11.04905499600255</v>
+        <v>29.75247342454799</v>
       </c>
       <c r="R7">
-        <v>11.04905499600255</v>
+        <v>267.772260820932</v>
       </c>
       <c r="S7">
-        <v>0.01324706945410655</v>
+        <v>0.02224646054968394</v>
       </c>
       <c r="T7">
-        <v>0.01324706945410655</v>
+        <v>0.0234614482382802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H8">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I8">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J8">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>16.79093860390236</v>
+        <v>19.23679712223733</v>
       </c>
       <c r="R8">
-        <v>16.79093860390236</v>
+        <v>173.131174100136</v>
       </c>
       <c r="S8">
-        <v>0.02013119945244248</v>
+        <v>0.01438369987515174</v>
       </c>
       <c r="T8">
-        <v>0.02013119945244248</v>
+        <v>0.01516926386299344</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H9">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I9">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J9">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>0.9577018674235962</v>
+        <v>1.131622672592222</v>
       </c>
       <c r="R9">
-        <v>0.9577018674235962</v>
+        <v>10.18460405333</v>
       </c>
       <c r="S9">
-        <v>0.001148219748990106</v>
+        <v>0.0008461346653007969</v>
       </c>
       <c r="T9">
-        <v>0.001148219748990106</v>
+        <v>0.0008923462052866303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H10">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I10">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J10">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>1.754384637625206</v>
+        <v>2.224303988747555</v>
       </c>
       <c r="R10">
-        <v>1.754384637625206</v>
+        <v>20.018735898728</v>
       </c>
       <c r="S10">
-        <v>0.002103388493608443</v>
+        <v>0.001663152176630467</v>
       </c>
       <c r="T10">
-        <v>0.002103388493608443</v>
+        <v>0.001753985026842983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H11">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I11">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J11">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>4.21601568425232</v>
+        <v>4.721852665763333</v>
       </c>
       <c r="R11">
-        <v>4.21601568425232</v>
+        <v>28.33111599458</v>
       </c>
       <c r="S11">
-        <v>0.005054717585268514</v>
+        <v>0.003530614330829195</v>
       </c>
       <c r="T11">
-        <v>0.005054717585268514</v>
+        <v>0.002482292263589058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H12">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I12">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J12">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>53.55246995814996</v>
+        <v>143.142936027102</v>
       </c>
       <c r="R12">
-        <v>53.55246995814996</v>
+        <v>1288.286424243918</v>
       </c>
       <c r="S12">
-        <v>0.06420578857026471</v>
+        <v>0.1070305528502874</v>
       </c>
       <c r="T12">
-        <v>0.06420578857026471</v>
+        <v>0.1128760132427991</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H13">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I13">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J13">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>81.38218476421218</v>
+        <v>92.55067908279601</v>
       </c>
       <c r="R13">
-        <v>81.38218476421218</v>
+        <v>832.956111745164</v>
       </c>
       <c r="S13">
-        <v>0.09757173389837306</v>
+        <v>0.0692018106085632</v>
       </c>
       <c r="T13">
-        <v>0.09757173389837306</v>
+        <v>0.0729812589271034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H14">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I14">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J14">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>4.641781627715811</v>
+        <v>5.444380691255</v>
       </c>
       <c r="R14">
-        <v>4.641781627715811</v>
+        <v>48.999426221295</v>
       </c>
       <c r="S14">
-        <v>0.00556518214773966</v>
+        <v>0.004070861556186916</v>
       </c>
       <c r="T14">
-        <v>0.00556518214773966</v>
+        <v>0.004293191156066443</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H15">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I15">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J15">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>8.503137203630034</v>
+        <v>10.701409560908</v>
       </c>
       <c r="R15">
-        <v>8.503137203630034</v>
+        <v>96.312686048172</v>
       </c>
       <c r="S15">
-        <v>0.01019468625642981</v>
+        <v>0.008001636779089639</v>
       </c>
       <c r="T15">
-        <v>0.01019468625642981</v>
+        <v>0.008438645181100407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H16">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I16">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J16">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>20.43415055456741</v>
+        <v>22.717434090945</v>
       </c>
       <c r="R16">
-        <v>20.43415055456741</v>
+        <v>136.30460454567</v>
       </c>
       <c r="S16">
-        <v>0.02449916411222122</v>
+        <v>0.01698623486130988</v>
       </c>
       <c r="T16">
-        <v>0.02449916411222122</v>
+        <v>0.01194262398346792</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H17">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I17">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J17">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N17">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O17">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P17">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q17">
-        <v>86.49366090094719</v>
+        <v>235.571680196688</v>
       </c>
       <c r="R17">
-        <v>86.49366090094719</v>
+        <v>2120.145121770192</v>
       </c>
       <c r="S17">
-        <v>0.103700047986848</v>
+        <v>0.176141190526851</v>
       </c>
       <c r="T17">
-        <v>0.103700047986848</v>
+        <v>0.1857611198395099</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H18">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I18">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J18">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N18">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P18">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q18">
-        <v>131.4419876034635</v>
+        <v>152.3115256679573</v>
       </c>
       <c r="R18">
-        <v>131.4419876034635</v>
+        <v>1370.803731011616</v>
       </c>
       <c r="S18">
-        <v>0.1575900508775503</v>
+        <v>0.1138860725521634</v>
       </c>
       <c r="T18">
-        <v>0.1575900508775503</v>
+        <v>0.120105946304414</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H19">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I19">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J19">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N19">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O19">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P19">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q19">
-        <v>7.497033963095433</v>
+        <v>8.959868664608889</v>
       </c>
       <c r="R19">
-        <v>7.497033963095433</v>
+        <v>80.63881798147999</v>
       </c>
       <c r="S19">
-        <v>0.008988436535509297</v>
+        <v>0.006699455266569963</v>
       </c>
       <c r="T19">
-        <v>0.008988436535509297</v>
+        <v>0.007065345186497003</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H20">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I20">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J20">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N20">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O20">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P20">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q20">
-        <v>13.73358626520412</v>
+        <v>17.61141066897422</v>
       </c>
       <c r="R20">
-        <v>13.73358626520412</v>
+        <v>158.502696020768</v>
       </c>
       <c r="S20">
-        <v>0.01646564083307969</v>
+        <v>0.01316836913291252</v>
       </c>
       <c r="T20">
-        <v>0.01646564083307969</v>
+        <v>0.01388755798273641</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H21">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I21">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J21">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N21">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O21">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P21">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q21">
-        <v>33.00360357322188</v>
+        <v>37.38629559441333</v>
       </c>
       <c r="R21">
-        <v>33.00360357322188</v>
+        <v>224.31777356648</v>
       </c>
       <c r="S21">
-        <v>0.03956908793814898</v>
+        <v>0.02795440695541346</v>
       </c>
       <c r="T21">
-        <v>0.03956908793814898</v>
+        <v>0.01965408895350683</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H22">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I22">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J22">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N22">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O22">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P22">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q22">
-        <v>20.96889623297153</v>
+        <v>52.06998813666299</v>
       </c>
       <c r="R22">
-        <v>20.96889623297153</v>
+        <v>312.419928819978</v>
       </c>
       <c r="S22">
-        <v>0.02514028800423421</v>
+        <v>0.03893366848448441</v>
       </c>
       <c r="T22">
-        <v>0.02514028800423421</v>
+        <v>0.0273733506456025</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H23">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I23">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J23">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N23">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P23">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q23">
-        <v>31.86584276816492</v>
+        <v>33.666437867174</v>
       </c>
       <c r="R23">
-        <v>31.86584276816492</v>
+        <v>201.998627203044</v>
       </c>
       <c r="S23">
-        <v>0.03820498970420928</v>
+        <v>0.02517300229709727</v>
       </c>
       <c r="T23">
-        <v>0.03820498970420928</v>
+        <v>0.01769854846726308</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H24">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I24">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J24">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N24">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O24">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P24">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q24">
-        <v>1.817526574661264</v>
+        <v>1.980459852740833</v>
       </c>
       <c r="R24">
-        <v>1.817526574661264</v>
+        <v>11.882759116445</v>
       </c>
       <c r="S24">
-        <v>0.002179091404462458</v>
+        <v>0.001480825521816297</v>
       </c>
       <c r="T24">
-        <v>0.002179091404462458</v>
+        <v>0.001041133749566615</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H25">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I25">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J25">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N25">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O25">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P25">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q25">
-        <v>3.329471111546796</v>
+        <v>3.892768196235333</v>
       </c>
       <c r="R25">
-        <v>3.329471111546796</v>
+        <v>23.356609177412</v>
       </c>
       <c r="S25">
-        <v>0.003991810618741493</v>
+        <v>0.002910692932008872</v>
       </c>
       <c r="T25">
-        <v>0.003991810618741493</v>
+        <v>0.002046440044079263</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H26">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I26">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J26">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N26">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O26">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P26">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q26">
-        <v>8.001154436433843</v>
+        <v>8.263743614892499</v>
       </c>
       <c r="R26">
-        <v>8.001154436433843</v>
+        <v>33.05497445957</v>
       </c>
       <c r="S26">
-        <v>0.009592842878492212</v>
+        <v>0.006178950022008177</v>
       </c>
       <c r="T26">
-        <v>0.009592842878492212</v>
+        <v>0.00289618338330978</v>
       </c>
     </row>
   </sheetData>
